--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$67</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,6 +567,9 @@
 An instance-order is an instantiation of a request or order and may be used to populate Medication Administration Record.  This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -730,97 +730,10 @@
     <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-treatment-dispensed-prescribed</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -1191,6 +1104,104 @@
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
   </si>
   <si>
+    <t>MedicationRequest.note.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
@@ -1407,10 +1418,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Intended dispenser</t>
@@ -1688,21 +1695,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1879,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2052,7 +2044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2164,7 +2156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2278,7 +2270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2390,7 +2382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2504,7 +2496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2618,7 +2610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2732,7 +2724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2846,7 +2838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2960,7 +2952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -3076,7 +3068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -3190,7 +3182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3235,7 +3227,7 @@
         <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>79</v>
@@ -3304,7 +3296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3418,7 +3410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>174</v>
       </c>
@@ -3463,7 +3455,7 @@
         <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>79</v>
@@ -3481,10 +3473,10 @@
         <v>157</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -3517,24 +3509,24 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3560,13 +3552,13 @@
         <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3595,10 +3587,10 @@
         <v>169</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3616,7 +3608,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3634,21 +3626,21 @@
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3674,10 +3666,10 @@
         <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3707,10 +3699,10 @@
         <v>157</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3728,7 +3720,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3743,24 +3735,24 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3783,16 +3775,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3842,7 +3834,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3863,7 +3855,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3872,9 +3864,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3897,13 +3889,13 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3954,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3975,7 +3967,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3984,9 +3976,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4009,16 +4001,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4047,26 +4039,26 @@
         <v>169</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4081,27 +4073,27 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4126,13 +4118,13 @@
         <v>165</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4162,7 +4154,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4180,7 +4172,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>86</v>
@@ -4192,27 +4184,27 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4220,7 +4212,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
@@ -4232,18 +4224,20 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4292,10 +4286,10 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4304,38 +4298,38 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4347,16 +4341,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4394,51 +4388,51 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4458,23 +4452,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4522,7 +4512,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4537,24 +4527,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4568,7 +4558,7 @@
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4577,20 +4567,16 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4638,7 +4624,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4653,24 +4639,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4678,7 +4664,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
@@ -4693,17 +4679,15 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4752,10 +4736,10 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -4767,24 +4751,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4807,17 +4791,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4866,7 +4848,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4881,24 +4863,24 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4909,7 +4891,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4918,10 +4900,10 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>275</v>
@@ -4929,7 +4911,9 @@
       <c r="L27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4954,13 +4938,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4978,13 +4962,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4993,24 +4977,24 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5030,16 +5014,16 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5090,7 +5074,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5105,22 +5089,22 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>288</v>
       </c>
@@ -5133,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5142,18 +5126,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5178,13 +5164,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5208,7 +5194,7 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5217,24 +5203,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5245,7 +5231,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5257,15 +5243,17 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5314,13 +5302,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5329,24 +5317,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5357,7 +5345,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5369,17 +5357,15 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5404,37 +5390,37 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5443,13 +5429,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5458,9 +5444,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5471,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5480,16 +5466,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5540,13 +5526,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5561,16 +5547,16 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>315</v>
       </c>
@@ -5592,20 +5578,18 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M33" t="s" s="2">
         <v>318</v>
       </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5630,13 +5614,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5669,24 +5653,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5697,7 +5681,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5706,21 +5690,21 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5768,13 +5752,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -5783,24 +5767,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5811,7 +5795,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -5820,18 +5804,20 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5856,13 +5842,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -5880,13 +5866,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -5895,13 +5881,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5910,9 +5896,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5932,16 +5918,16 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5992,7 +5978,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6007,13 +5993,13 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6022,9 +6008,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6035,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6044,16 +6030,16 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6104,7 +6090,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6119,24 +6105,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6156,10 +6142,10 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>144</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>349</v>
@@ -6168,9 +6154,7 @@
         <v>350</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6218,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6230,38 +6214,38 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6273,16 +6257,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6308,63 +6292,63 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6375,7 +6359,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6384,18 +6368,20 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6432,25 +6418,23 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6459,26 +6443,28 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6487,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6496,18 +6482,20 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6556,13 +6544,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6571,24 +6559,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6599,7 +6587,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6608,20 +6596,18 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6670,13 +6656,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6685,24 +6671,24 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6710,7 +6696,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6722,16 +6708,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6782,10 +6768,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6800,21 +6786,21 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6825,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6837,15 +6823,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6894,28 +6882,28 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6924,20 +6912,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6949,17 +6937,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7008,28 +6994,28 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7038,45 +7024,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7124,19 +7106,19 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7145,7 +7127,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7154,20 +7136,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7179,16 +7161,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7238,19 +7220,19 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7241,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7268,41 +7250,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7350,19 +7336,19 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>230</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7371,7 +7357,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7380,20 +7366,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7405,16 +7391,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7464,19 +7450,19 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7485,7 +7471,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7494,45 +7480,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7580,19 +7562,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -7601,7 +7583,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7610,20 +7592,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7635,15 +7617,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>403</v>
+        <v>132</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7692,19 +7676,19 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -7713,7 +7697,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7722,41 +7706,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>408</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7804,19 +7792,19 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -7825,7 +7813,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>129</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7834,9 +7822,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7859,13 +7847,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K53" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7916,7 +7904,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7937,18 +7925,18 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7971,20 +7959,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8032,7 +8016,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8050,10 +8034,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8062,9 +8046,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8087,17 +8071,15 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8146,7 +8128,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8164,21 +8146,21 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8201,16 +8183,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8258,7 +8244,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8276,21 +8262,21 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8313,16 +8299,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8372,7 +8358,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8390,21 +8376,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8427,13 +8413,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8484,7 +8470,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8502,21 +8488,21 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8539,15 +8525,17 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8596,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8614,10 +8602,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8626,9 +8614,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8651,13 +8639,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>227</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>229</v>
+        <v>449</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8708,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>230</v>
+        <v>447</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8720,7 +8708,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -8729,29 +8717,29 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>231</v>
+        <v>450</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8763,17 +8751,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8822,28 +8808,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>236</v>
+        <v>451</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -8852,45 +8838,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8938,19 +8920,19 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -8959,7 +8941,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -8968,20 +8950,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8993,16 +8975,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>457</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>460</v>
+        <v>135</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9028,13 +9010,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9052,71 +9034,75 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9140,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9164,39 +9150,39 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>471</v>
+        <v>129</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9204,7 +9190,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>86</v>
@@ -9219,15 +9205,17 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9252,13 +9240,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9276,10 +9264,10 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -9291,35 +9279,35 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9331,17 +9319,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>481</v>
+        <v>165</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9366,13 +9352,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9390,13 +9376,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9408,21 +9394,21 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9433,7 +9419,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9445,17 +9431,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9504,13 +9488,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9519,40 +9503,250 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="M69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN67">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-medication-request</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-medication-request</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -727,7 +727,7 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-treatment-dispensed-prescribed</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-treatment-dispensed-prescribed</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1904,7 +1904,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-medication-request</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-medication-request</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -727,7 +727,7 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-treatment-dispensed-prescribed</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-treatment-dispensed-prescribed</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1904,7 +1904,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
